--- a/queryclicktimeline/query click timeline.xlsx
+++ b/queryclicktimeline/query click timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="task1-qiushaojie" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="523">
   <si>
     <t>化疗方案</t>
   </si>
@@ -1602,6 +1602,13 @@
   </si>
   <si>
     <t>query/click</t>
+  </si>
+  <si>
+    <t>重构链</t>
+    <rPh sb="0" eb="1">
+      <t>chong gou lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1664,12 +1671,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1686,7 +1699,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1713,6 +1726,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1992,9 +2006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2002,15 +2018,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2018,23 +2037,25 @@
         <v>1482130504123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="B3" s="7">
         <v>1482130538637</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>1482130643324</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2063,7 @@
         <v>1482131067313</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>443</v>
       </c>
@@ -2050,7 +2071,7 @@
         <v>1482131103821</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>423</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>1482131171840</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2087,7 @@
         <v>1482131432971</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>490</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>1482131451947</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2103,7 @@
         <v>1482131468044</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>491</v>
       </c>
@@ -2090,7 +2111,7 @@
         <v>1482131475305</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2119,7 @@
         <v>1482131642317</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>492</v>
       </c>
@@ -2106,7 +2127,7 @@
         <v>1482131782470</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>493</v>
       </c>
@@ -2114,7 +2135,7 @@
         <v>1482131935221</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>494</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>1482131981348</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>495</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>1482132062420</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2159,7 @@
         <v>1482132140520</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>496</v>
       </c>
@@ -2146,23 +2167,25 @@
         <v>1482132166213</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7">
         <v>1482132283149</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="7">
         <v>1482132289546</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>497</v>
       </c>
@@ -2170,7 +2193,7 @@
         <v>1482132391096</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2201,7 @@
         <v>1482324050654</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -2186,7 +2209,7 @@
         <v>1482324093356</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +2217,7 @@
         <v>1482324185164</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>498</v>
       </c>
@@ -2202,7 +2225,7 @@
         <v>1482324213595</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>499</v>
       </c>
@@ -2210,7 +2233,7 @@
         <v>1482324238042</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>365</v>
       </c>
@@ -2218,7 +2241,7 @@
         <v>1482324291548</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>500</v>
       </c>
@@ -2226,7 +2249,7 @@
         <v>1482324429142</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2257,7 @@
         <v>1482324443121</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>501</v>
       </c>
@@ -2242,7 +2265,7 @@
         <v>1482324456965</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>502</v>
       </c>
@@ -2250,7 +2273,7 @@
         <v>1482324493140</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>503</v>
       </c>
@@ -2258,23 +2281,25 @@
         <v>1482324531360</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5">
         <v>1482324552922</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="5">
         <v>1482324577113</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>504</v>
       </c>
@@ -2282,7 +2307,7 @@
         <v>1482324598201</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>505</v>
       </c>
@@ -2290,23 +2315,25 @@
         <v>1482324733331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="5">
         <v>1482324860054</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="5">
         <v>1482324888870</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>506</v>
       </c>
@@ -2314,7 +2341,7 @@
         <v>1482324915138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
@@ -2322,7 +2349,7 @@
         <v>1482324950909</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>507</v>
       </c>
@@ -2330,7 +2357,7 @@
         <v>1482324983743</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>508</v>
       </c>
@@ -2338,7 +2365,7 @@
         <v>1482325009892</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>509</v>
       </c>
@@ -2346,7 +2373,7 @@
         <v>1482325040905</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
@@ -2354,7 +2381,7 @@
         <v>1482459975431</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>510</v>
       </c>
@@ -2362,7 +2389,7 @@
         <v>1482460004091</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>511</v>
       </c>
@@ -2370,7 +2397,7 @@
         <v>1482460054275</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>1482460223126</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>512</v>
       </c>
@@ -2386,7 +2413,7 @@
         <v>1482460240336</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2421,7 @@
         <v>1482460416112</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>513</v>
       </c>
@@ -2402,23 +2429,25 @@
         <v>1482460458718</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="5">
         <v>1482460542301</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="5">
         <v>1482460549677</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>514</v>
       </c>
@@ -2426,7 +2455,7 @@
         <v>1482460556044</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2463,7 @@
         <v>1482460806739</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>515</v>
       </c>
@@ -2442,23 +2471,25 @@
         <v>1482460825086</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>516</v>
       </c>
       <c r="B56" s="5">
         <v>1482461017715</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="5">
         <v>1482461024113</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>517</v>
       </c>
@@ -2466,7 +2497,7 @@
         <v>1482461053718</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>518</v>
       </c>
@@ -2474,7 +2505,7 @@
         <v>1482461108702</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>519</v>
       </c>
@@ -2482,7 +2513,7 @@
         <v>1482461260552</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>520</v>
       </c>
@@ -2490,7 +2521,7 @@
         <v>1482461314023</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="5"/>
     </row>
@@ -2502,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,15 +2545,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2530,7 +2564,7 @@
         <v>1482136527117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>335</v>
       </c>
@@ -2538,7 +2572,7 @@
         <v>1482136545787</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>336</v>
       </c>
@@ -2546,7 +2580,7 @@
         <v>1482136588563</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2554,7 +2588,7 @@
         <v>1482136617229</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>337</v>
       </c>
@@ -2562,7 +2596,7 @@
         <v>1482136641167</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>338</v>
       </c>
@@ -2570,7 +2604,7 @@
         <v>1482136668681</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>339</v>
       </c>
@@ -2578,7 +2612,7 @@
         <v>1482136713118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>340</v>
       </c>
@@ -2586,7 +2620,7 @@
         <v>1482136735476</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>341</v>
       </c>
@@ -2594,7 +2628,7 @@
         <v>1482136758421</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
@@ -2602,7 +2636,7 @@
         <v>1482136803580</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>342</v>
       </c>
@@ -2610,7 +2644,7 @@
         <v>1482136845413</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>117</v>
       </c>
@@ -2618,7 +2652,7 @@
         <v>1482136956502</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>118</v>
       </c>
@@ -2626,7 +2660,7 @@
         <v>1482137225867</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>343</v>
       </c>
@@ -2634,7 +2668,7 @@
         <v>1482137262560</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>344</v>
       </c>
@@ -2898,7 +2932,7 @@
         <v>1482309922456</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>364</v>
       </c>
@@ -2906,7 +2940,7 @@
         <v>1482309949650</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>132</v>
       </c>
@@ -2914,7 +2948,7 @@
         <v>1482310004527</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>365</v>
       </c>
@@ -2922,7 +2956,7 @@
         <v>1482310016601</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>133</v>
       </c>
@@ -2930,7 +2964,7 @@
         <v>1482310068450</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>134</v>
       </c>
@@ -2938,7 +2972,7 @@
         <v>1482310301204</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>366</v>
       </c>
@@ -2946,7 +2980,7 @@
         <v>1482310321183</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>367</v>
       </c>
@@ -2954,7 +2988,7 @@
         <v>1482476420921</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>368</v>
       </c>
@@ -2962,23 +2996,25 @@
         <v>1482476480515</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B57" s="5">
         <v>1482476584269</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B58" s="5">
         <v>1482476604629</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>369</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>1482476623230</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>370</v>
       </c>
@@ -2994,7 +3030,7 @@
         <v>1482476636132</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>137</v>
       </c>
@@ -3002,7 +3038,7 @@
         <v>1482476721606</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>371</v>
       </c>
@@ -3010,7 +3046,7 @@
         <v>1482476739430</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -3018,7 +3054,7 @@
         <v>1482476762943</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>372</v>
       </c>
@@ -3026,7 +3062,7 @@
         <v>1482476819970</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>373</v>
       </c>
@@ -3034,7 +3070,7 @@
         <v>1482476859595</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>139</v>
       </c>
@@ -3042,7 +3078,7 @@
         <v>1482476983647</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>374</v>
       </c>
@@ -3050,7 +3086,7 @@
         <v>1482477058299</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>375</v>
       </c>
@@ -3058,7 +3094,7 @@
         <v>1482477098201</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>376</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>1482477149716</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>140</v>
       </c>
@@ -3074,7 +3110,7 @@
         <v>1482477322782</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>377</v>
       </c>
@@ -3082,7 +3118,7 @@
         <v>1482477362182</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>141</v>
       </c>
@@ -3090,7 +3126,7 @@
         <v>1482477429532</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>378</v>
       </c>
@@ -3098,7 +3134,7 @@
         <v>1482477447766</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>379</v>
       </c>
@@ -3106,23 +3142,25 @@
         <v>1482477495683</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="5">
         <v>1482477549183</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B76" s="5">
         <v>1482477559227</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>380</v>
       </c>
@@ -3130,7 +3168,7 @@
         <v>1482477574345</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>144</v>
       </c>
@@ -3138,7 +3176,7 @@
         <v>1482477757078</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>381</v>
       </c>
@@ -3146,23 +3184,25 @@
         <v>1482477768271</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B80" s="5">
         <v>1482477869785</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B81" s="5">
         <v>1482477901061</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>382</v>
       </c>
@@ -3170,7 +3210,7 @@
         <v>1482477928277</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>147</v>
       </c>
@@ -3178,7 +3218,7 @@
         <v>1482477954055</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>383</v>
       </c>
@@ -3186,7 +3226,7 @@
         <v>1482477974747</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="5"/>
     </row>
@@ -3198,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,15 +3250,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -3226,7 +3269,7 @@
         <v>1481542388676</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>384</v>
       </c>
@@ -3234,7 +3277,7 @@
         <v>1481542395434</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>385</v>
       </c>
@@ -3242,7 +3285,7 @@
         <v>1481542403906</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>386</v>
       </c>
@@ -3250,7 +3293,7 @@
         <v>1481542422312</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>387</v>
       </c>
@@ -3258,7 +3301,7 @@
         <v>1481542462813</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>388</v>
       </c>
@@ -3266,23 +3309,25 @@
         <v>1481542635388</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="7">
         <v>1481542693000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="7">
         <v>1481542731439</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>389</v>
       </c>
@@ -3290,7 +3335,7 @@
         <v>1481542749074</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>390</v>
       </c>
@@ -3298,7 +3343,7 @@
         <v>1481542764124</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>391</v>
       </c>
@@ -3306,7 +3351,7 @@
         <v>1481542780224</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>392</v>
       </c>
@@ -3314,7 +3359,7 @@
         <v>1481542822985</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>393</v>
       </c>
@@ -3322,7 +3367,7 @@
         <v>1481542884452</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>394</v>
       </c>
@@ -3330,7 +3375,7 @@
         <v>1481542890658</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>151</v>
       </c>
@@ -3466,7 +3511,7 @@
         <v>1481543473310</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>114</v>
       </c>
@@ -3474,7 +3519,7 @@
         <v>1481543493531</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>410</v>
       </c>
@@ -3482,7 +3527,7 @@
         <v>1481543595449</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>411</v>
       </c>
@@ -3490,7 +3535,7 @@
         <v>1481543618202</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>412</v>
       </c>
@@ -3498,7 +3543,7 @@
         <v>1481543680035</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>153</v>
       </c>
@@ -3506,7 +3551,7 @@
         <v>1481543774785</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>337</v>
       </c>
@@ -3514,7 +3559,7 @@
         <v>1481543781096</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>338</v>
       </c>
@@ -3522,7 +3567,7 @@
         <v>1481543803704</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>154</v>
       </c>
@@ -3530,7 +3575,7 @@
         <v>1481543876096</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>413</v>
       </c>
@@ -3538,7 +3583,7 @@
         <v>1481543880716</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>414</v>
       </c>
@@ -3546,7 +3591,7 @@
         <v>1481543894673</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>155</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>1481543978572</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>415</v>
       </c>
@@ -3562,7 +3607,7 @@
         <v>1481543984717</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>416</v>
       </c>
@@ -3570,7 +3615,7 @@
         <v>1481543989150</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>417</v>
       </c>
@@ -3578,31 +3623,34 @@
         <v>1481543995856</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B47" s="5">
         <v>1481723264157</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B48" s="5">
         <v>1481723267533</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B49" s="5">
         <v>1481723281118</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>418</v>
       </c>
@@ -3610,7 +3658,7 @@
         <v>1481723290990</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>419</v>
       </c>
@@ -3618,7 +3666,7 @@
         <v>1481723295580</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>420</v>
       </c>
@@ -3626,7 +3674,7 @@
         <v>1481723307511</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>421</v>
       </c>
@@ -3634,23 +3682,25 @@
         <v>1481723337022</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B54" s="5">
         <v>1481723385154</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B55" s="5">
         <v>1481723617459</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>422</v>
       </c>
@@ -3658,7 +3708,7 @@
         <v>1481723626133</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>423</v>
       </c>
@@ -3666,7 +3716,7 @@
         <v>1481723671272</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>424</v>
       </c>
@@ -3674,7 +3724,7 @@
         <v>1481723695881</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -3682,7 +3732,7 @@
         <v>1481723739205</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>425</v>
       </c>
@@ -3690,7 +3740,7 @@
         <v>1481723764276</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>162</v>
       </c>
@@ -3698,7 +3748,7 @@
         <v>1481723847529</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>426</v>
       </c>
@@ -3706,7 +3756,7 @@
         <v>1481723920798</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>163</v>
       </c>
@@ -3714,7 +3764,7 @@
         <v>1481724062922</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>427</v>
       </c>
@@ -3722,7 +3772,7 @@
         <v>1481724067668</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>428</v>
       </c>
@@ -3730,7 +3780,7 @@
         <v>1481724078484</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>429</v>
       </c>
@@ -3738,7 +3788,7 @@
         <v>1481724104627</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>430</v>
       </c>
@@ -3746,7 +3796,7 @@
         <v>1481724150618</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>21</v>
       </c>
@@ -3754,7 +3804,7 @@
         <v>1481724301807</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>431</v>
       </c>
@@ -3762,7 +3812,7 @@
         <v>1481724333403</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>432</v>
       </c>
@@ -3770,7 +3820,7 @@
         <v>1481724345149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>433</v>
       </c>
@@ -3778,7 +3828,7 @@
         <v>1481724364709</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>434</v>
       </c>
@@ -3786,7 +3836,7 @@
         <v>1481724426220</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>435</v>
       </c>
@@ -3794,7 +3844,7 @@
         <v>1481724434301</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>436</v>
       </c>
@@ -3802,7 +3852,7 @@
         <v>1481894820750</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>164</v>
       </c>
@@ -3810,7 +3860,7 @@
         <v>1481894971094</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>437</v>
       </c>
@@ -3818,23 +3868,25 @@
         <v>1481895059848</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B77" s="5">
         <v>1481895512203</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B78" s="5">
         <v>1481895532576</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>167</v>
       </c>
@@ -3842,7 +3894,7 @@
         <v>1481895595091</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>438</v>
       </c>
@@ -3890,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3902,15 +3954,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3918,7 +3973,7 @@
         <v>1482136541269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>441</v>
       </c>
@@ -3926,7 +3981,7 @@
         <v>1482136546157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>442</v>
       </c>
@@ -3934,7 +3989,7 @@
         <v>1482136609210</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>370</v>
       </c>
@@ -3942,7 +3997,7 @@
         <v>1482136649104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>443</v>
       </c>
@@ -3950,7 +4005,7 @@
         <v>1482136708145</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>169</v>
       </c>
@@ -3958,7 +4013,7 @@
         <v>1482136750693</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>444</v>
       </c>
@@ -3966,7 +4021,7 @@
         <v>1482136800246</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>445</v>
       </c>
@@ -3974,7 +4029,7 @@
         <v>1482136863551</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>366</v>
       </c>
@@ -3982,7 +4037,7 @@
         <v>1482136959068</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>339</v>
       </c>
@@ -3990,7 +4045,7 @@
         <v>1482137014285</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>170</v>
       </c>
@@ -3998,7 +4053,7 @@
         <v>1482137058686</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>446</v>
       </c>
@@ -4006,7 +4061,7 @@
         <v>1482137080302</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>447</v>
       </c>
@@ -4014,7 +4069,7 @@
         <v>1482137148921</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>448</v>
       </c>
@@ -4022,7 +4077,7 @@
         <v>1482137266871</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>171</v>
       </c>
@@ -4158,7 +4213,7 @@
         <v>1482309302839</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>459</v>
       </c>
@@ -4166,23 +4221,25 @@
         <v>1482309329551</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B34" s="5">
         <v>1482309376104</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B35" s="5">
         <v>1482309400266</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>460</v>
       </c>
@@ -4190,7 +4247,7 @@
         <v>1482309431424</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>461</v>
       </c>
@@ -4198,7 +4255,7 @@
         <v>1482309470642</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>178</v>
       </c>
@@ -4206,7 +4263,7 @@
         <v>1482309533447</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>462</v>
       </c>
@@ -4214,7 +4271,7 @@
         <v>1482309538938</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>463</v>
       </c>
@@ -4222,7 +4279,7 @@
         <v>1482309562603</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>179</v>
       </c>
@@ -4230,7 +4287,7 @@
         <v>1482309617254</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>464</v>
       </c>
@@ -4238,23 +4295,25 @@
         <v>1482309666178</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B43" s="5">
         <v>1482309724596</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B44" s="5">
         <v>1482309745999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>182</v>
       </c>
@@ -4262,7 +4321,7 @@
         <v>1482309829405</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>465</v>
       </c>
@@ -4270,7 +4329,7 @@
         <v>1482309854478</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>466</v>
       </c>
@@ -4278,7 +4337,7 @@
         <v>1482309880969</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>183</v>
       </c>
@@ -4546,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4558,15 +4617,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -4574,7 +4636,7 @@
         <v>1481525880277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -4582,7 +4644,7 @@
         <v>1481525897194</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>193</v>
       </c>
@@ -4590,7 +4652,7 @@
         <v>1481526055386</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -4598,7 +4660,7 @@
         <v>1481526258705</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>194</v>
       </c>
@@ -4606,7 +4668,7 @@
         <v>1481526291431</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>195</v>
       </c>
@@ -4614,7 +4676,7 @@
         <v>1481526330862</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>196</v>
       </c>
@@ -4622,7 +4684,7 @@
         <v>1481526362497</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>197</v>
       </c>
@@ -4630,7 +4692,7 @@
         <v>1481526511445</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>198</v>
       </c>
@@ -4638,7 +4700,7 @@
         <v>1481526603420</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>199</v>
       </c>
@@ -4646,7 +4708,7 @@
         <v>1481526918898</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>200</v>
       </c>
@@ -4654,7 +4716,7 @@
         <v>1481527057749</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -4662,7 +4724,7 @@
         <v>1481527277146</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>201</v>
       </c>
@@ -4670,7 +4732,7 @@
         <v>1481527284651</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -4678,7 +4740,7 @@
         <v>1481714883973</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -4686,7 +4748,7 @@
         <v>1481714905577</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>202</v>
       </c>
@@ -4694,7 +4756,7 @@
         <v>1481714908354</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>203</v>
       </c>
@@ -4702,7 +4764,7 @@
         <v>1481715001224</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>204</v>
       </c>
@@ -4710,23 +4772,25 @@
         <v>1481715095749</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="7">
         <v>1481715147620</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="7">
         <v>1481715178338</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>205</v>
       </c>
@@ -4734,7 +4798,7 @@
         <v>1481715183232</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>206</v>
       </c>
@@ -4742,23 +4806,25 @@
         <v>1481715253684</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>1481715350850</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="7">
         <v>1481715379170</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>207</v>
       </c>
@@ -4766,7 +4832,7 @@
         <v>1481715393682</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>208</v>
       </c>
@@ -4774,7 +4840,7 @@
         <v>1481715613663</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
@@ -4782,7 +4848,7 @@
         <v>1481715675334</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>209</v>
       </c>
@@ -4790,7 +4856,7 @@
         <v>1481715705916</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>210</v>
       </c>
@@ -4798,7 +4864,7 @@
         <v>1481715751899</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -4806,7 +4872,7 @@
         <v>1481715805010</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>211</v>
       </c>
@@ -4814,7 +4880,7 @@
         <v>1481715835893</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>212</v>
       </c>
@@ -4822,7 +4888,7 @@
         <v>1481715976841</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
@@ -4830,7 +4896,7 @@
         <v>1481716030510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>213</v>
       </c>
@@ -4838,7 +4904,7 @@
         <v>1481716045178</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
@@ -4846,7 +4912,7 @@
         <v>1481716097579</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>214</v>
       </c>
@@ -4854,7 +4920,7 @@
         <v>1481716108848</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>40</v>
       </c>
@@ -4862,7 +4928,7 @@
         <v>1481888217905</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>215</v>
       </c>
@@ -4870,7 +4936,7 @@
         <v>1481888289952</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
@@ -4878,7 +4944,7 @@
         <v>1481888356651</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>216</v>
       </c>
@@ -4886,7 +4952,7 @@
         <v>1481888367997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>217</v>
       </c>
@@ -4894,7 +4960,7 @@
         <v>1481888391287</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>218</v>
       </c>
@@ -4902,23 +4968,25 @@
         <v>1481888468914</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>1481888536059</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="5">
         <v>1481888583543</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>219</v>
       </c>
@@ -4926,7 +4994,7 @@
         <v>1481888621154</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>220</v>
       </c>
@@ -4934,7 +5002,7 @@
         <v>1481888759465</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>221</v>
       </c>
@@ -4942,7 +5010,7 @@
         <v>1481888988794</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
@@ -4950,7 +5018,7 @@
         <v>1481889230098</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>222</v>
       </c>
@@ -4958,7 +5026,7 @@
         <v>1481889256287</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>223</v>
       </c>
@@ -4966,31 +5034,34 @@
         <v>1481889291366</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="5">
         <v>1481889543734</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="5">
         <v>1481889606799</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="5">
         <v>1481889645500</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>224</v>
       </c>
@@ -4998,7 +5069,7 @@
         <v>1481889663993</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>225</v>
       </c>
@@ -5006,7 +5077,7 @@
         <v>1481889714697</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="5"/>
     </row>
@@ -5018,10 +5089,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5030,15 +5101,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -5046,7 +5120,7 @@
         <v>1481544220551</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>202</v>
       </c>
@@ -5054,7 +5128,7 @@
         <v>1481544242972</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>195</v>
       </c>
@@ -5062,7 +5136,7 @@
         <v>1481544299027</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -5070,7 +5144,7 @@
         <v>1481544601434</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>194</v>
       </c>
@@ -5078,7 +5152,7 @@
         <v>1481544665570</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>226</v>
       </c>
@@ -5086,7 +5160,7 @@
         <v>1481544698045</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>203</v>
       </c>
@@ -5094,7 +5168,7 @@
         <v>1481544714828</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -5102,7 +5176,7 @@
         <v>1481545000097</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>227</v>
       </c>
@@ -5110,7 +5184,7 @@
         <v>1481545024471</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>228</v>
       </c>
@@ -5118,7 +5192,7 @@
         <v>1481545044797</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>229</v>
       </c>
@@ -5126,7 +5200,7 @@
         <v>1481545072419</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>230</v>
       </c>
@@ -5134,7 +5208,7 @@
         <v>1481545088039</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -5142,7 +5216,7 @@
         <v>1481545114250</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>231</v>
       </c>
@@ -5150,7 +5224,7 @@
         <v>1481545141683</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>232</v>
       </c>
@@ -5418,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5430,15 +5504,18 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -5446,7 +5523,7 @@
         <v>1481525912894</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>257</v>
       </c>
@@ -5454,7 +5531,7 @@
         <v>1481525923076</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
@@ -5462,7 +5539,7 @@
         <v>1481525948473</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
@@ -5470,7 +5547,7 @@
         <v>1481526001845</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>226</v>
       </c>
@@ -5478,7 +5555,7 @@
         <v>1481526011766</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>232</v>
       </c>
@@ -5486,7 +5563,7 @@
         <v>1481526305030</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -5494,7 +5571,7 @@
         <v>1481526320580</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>258</v>
       </c>
@@ -5502,7 +5579,7 @@
         <v>1481526348886</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -5510,7 +5587,7 @@
         <v>1481526358500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -5518,7 +5595,7 @@
         <v>1481526388499</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>259</v>
       </c>
@@ -5526,7 +5603,7 @@
         <v>1481526621538</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -5534,7 +5611,7 @@
         <v>1481715156629</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>260</v>
       </c>
@@ -5542,7 +5619,7 @@
         <v>1481715202109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>261</v>
       </c>
@@ -5550,7 +5627,7 @@
         <v>1481715205968</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -5558,7 +5635,7 @@
         <v>1481715338889</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>262</v>
       </c>
@@ -5566,7 +5643,7 @@
         <v>1481715354188</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>263</v>
       </c>
@@ -5574,7 +5651,7 @@
         <v>1481715431640</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -5582,7 +5659,7 @@
         <v>1481715607840</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>264</v>
       </c>
@@ -5590,7 +5667,7 @@
         <v>1481715615012</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>265</v>
       </c>
@@ -5598,7 +5675,7 @@
         <v>1481715635609</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>266</v>
       </c>
@@ -5606,7 +5683,7 @@
         <v>1481715671349</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>267</v>
       </c>
@@ -5614,7 +5691,7 @@
         <v>1481715697669</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>268</v>
       </c>
@@ -5622,7 +5699,7 @@
         <v>1481715744212</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>64</v>
       </c>
@@ -5630,23 +5707,25 @@
         <v>1481716175030</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="5">
         <v>1481716226609</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="5">
         <v>1481716261122</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>269</v>
       </c>
@@ -5654,7 +5733,7 @@
         <v>1481716266427</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>67</v>
       </c>
@@ -5662,7 +5741,7 @@
         <v>1481716335795</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>270</v>
       </c>
@@ -5670,7 +5749,7 @@
         <v>1481716361700</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>271</v>
       </c>
@@ -5678,7 +5757,7 @@
         <v>1481716377232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>272</v>
       </c>
@@ -5930,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5942,31 +6021,36 @@
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="7">
         <v>1482132594768</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="7">
         <v>1482132604248</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>295</v>
       </c>
@@ -5974,7 +6058,7 @@
         <v>1482132628667</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
@@ -5982,7 +6066,7 @@
         <v>1482132870080</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
@@ -5990,7 +6074,7 @@
         <v>1482132908041</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -5998,7 +6082,7 @@
         <v>1482133016837</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>276</v>
       </c>
@@ -6006,7 +6090,7 @@
         <v>1482133037078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>296</v>
       </c>
@@ -6014,7 +6098,7 @@
         <v>1482133095198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>297</v>
       </c>
@@ -6022,31 +6106,34 @@
         <v>1482133124079</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="7">
         <v>1482133149788</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="7">
         <v>1482133178936</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>1482133202730</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>205</v>
       </c>
@@ -6054,21 +6141,23 @@
         <v>1482133211424</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="5">
         <v>1482133368956</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="5">
         <v>1482133411558</v>
       </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -6198,7 +6287,7 @@
         <v>1482390483103</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>305</v>
       </c>
@@ -6206,7 +6295,7 @@
         <v>1482390508959</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>306</v>
       </c>
@@ -6214,7 +6303,7 @@
         <v>1482390531289</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>307</v>
       </c>
@@ -6222,23 +6311,25 @@
         <v>1482390542448</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="5">
         <v>1482390568969</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="5">
         <v>1482390577298</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>308</v>
       </c>
@@ -6246,7 +6337,7 @@
         <v>1482390593614</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>88</v>
       </c>
@@ -6254,7 +6345,7 @@
         <v>1482390631713</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>309</v>
       </c>
@@ -6262,7 +6353,7 @@
         <v>1482390636833</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>310</v>
       </c>
@@ -6270,7 +6361,7 @@
         <v>1482390644361</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>89</v>
       </c>
@@ -6278,23 +6369,25 @@
         <v>1482390705712</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="5">
         <v>1482390754781</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="5">
         <v>1482390762302</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>311</v>
       </c>
@@ -6302,7 +6395,7 @@
         <v>1482390779807</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>312</v>
       </c>
@@ -6310,7 +6403,7 @@
         <v>1482390796739</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>313</v>
       </c>
@@ -6318,7 +6411,7 @@
         <v>1482390885412</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>92</v>
       </c>
@@ -6326,7 +6419,7 @@
         <v>1482390932087</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>314</v>
       </c>
@@ -6334,23 +6427,25 @@
         <v>1482390949665</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="5">
         <v>1482391010661</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="5">
         <v>1482391123975</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>315</v>
       </c>
@@ -6358,7 +6453,7 @@
         <v>1482391131334</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>260</v>
       </c>
@@ -6366,7 +6461,7 @@
         <v>1482391156395</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>261</v>
       </c>
@@ -6374,7 +6469,7 @@
         <v>1482391216628</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>316</v>
       </c>
@@ -6382,7 +6477,7 @@
         <v>1482391236020</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>251</v>
       </c>
@@ -6390,7 +6485,7 @@
         <v>1482391262848</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>317</v>
       </c>
@@ -6398,23 +6493,25 @@
         <v>1482391295064</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B58" s="5">
         <v>1482391320171</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="5">
         <v>1482391345102</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>318</v>
       </c>
@@ -6422,7 +6519,7 @@
         <v>1482391362121</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>319</v>
       </c>
@@ -6430,7 +6527,7 @@
         <v>1482391372922</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>320</v>
       </c>
@@ -6438,7 +6535,7 @@
         <v>1482391403141</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>97</v>
       </c>
@@ -6446,7 +6543,7 @@
         <v>1482391450299</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>194</v>
       </c>
@@ -6454,31 +6551,34 @@
         <v>1482391473360</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B65" s="5">
         <v>1482391510894</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B66" s="5">
         <v>1482391541707</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B67" s="5">
         <v>1482391600465</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>321</v>
       </c>
@@ -6486,7 +6586,7 @@
         <v>1482391604100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>322</v>
       </c>
@@ -6494,7 +6594,7 @@
         <v>1482391619461</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>204</v>
       </c>
@@ -6502,7 +6602,7 @@
         <v>1482391636366</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>323</v>
       </c>
@@ -6510,7 +6610,7 @@
         <v>1482391670531</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>324</v>
       </c>
@@ -6518,7 +6618,7 @@
         <v>1482391703754</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>101</v>
       </c>
@@ -6526,7 +6626,7 @@
         <v>1482551092679</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>325</v>
       </c>
@@ -6534,7 +6634,7 @@
         <v>1482551101255</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>102</v>
       </c>
@@ -6542,7 +6642,7 @@
         <v>1482551148911</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>226</v>
       </c>
@@ -6550,23 +6650,25 @@
         <v>1482551263217</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B77" s="5">
         <v>1482551384187</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B78" s="5">
         <v>1482551500641</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>326</v>
       </c>
@@ -6574,7 +6676,7 @@
         <v>1482551503606</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>327</v>
       </c>
@@ -6582,7 +6684,7 @@
         <v>1482551540145</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>328</v>
       </c>
@@ -6590,31 +6692,34 @@
         <v>1482551561668</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="5">
         <v>1482551612088</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="5">
         <v>1482551626497</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B84" s="5">
         <v>1482551648523</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>329</v>
       </c>
@@ -6622,23 +6727,25 @@
         <v>1482551659493</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="5">
         <v>1482551741171</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="10"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="5">
         <v>1482551760185</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="10"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>241</v>
       </c>
@@ -6646,23 +6753,25 @@
         <v>1482551775178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B89" s="5">
         <v>1482551791107</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="10"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="5">
         <v>1482551804653</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>285</v>
       </c>
@@ -6670,7 +6779,7 @@
         <v>1482551850508</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>112</v>
       </c>
@@ -6678,7 +6787,7 @@
         <v>1482551912435</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>330</v>
       </c>
@@ -6686,7 +6795,7 @@
         <v>1482551919762</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>113</v>
       </c>
@@ -6694,7 +6803,7 @@
         <v>1482552004190</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>331</v>
       </c>
@@ -6702,7 +6811,7 @@
         <v>1482552020344</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>332</v>
       </c>
